--- a/finance/data/transactions.xlsx
+++ b/finance/data/transactions.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luoyonggui/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luoyonggui/PycharmProjects/mayifactories/finance/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="460" windowWidth="27780" windowHeight="17540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1040" yWindow="460" windowWidth="27760" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="old" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
   <si>
     <t>trade_date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -50,9 +51,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> fee_rate</t>
-  </si>
-  <si>
     <t>('东方航空', 17500, 5.74, PA),</t>
   </si>
   <si>
@@ -204,6 +202,31 @@
   </si>
   <si>
     <t>('cash', 142000, 1, OTHER),</t>
+  </si>
+  <si>
+    <t>PA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信证券</t>
+    <rPh sb="0" eb="1">
+      <t>zhong'xin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zh'q</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业证券</t>
+    <rPh sb="0" eb="1">
+      <t>x'y'z'q</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fee_rate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -253,9 +276,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -533,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -561,8 +585,14 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -574,7 +604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection sqref="A1:A51"/>
     </sheetView>
   </sheetViews>
@@ -582,257 +612,333 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>43732</v>
+      </c>
+      <c r="B2" t="s">
         <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2">
+        <v>23.2</v>
+      </c>
+      <c r="E2">
+        <v>-500</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>43733</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3">
+        <v>17.239999999999998</v>
+      </c>
+      <c r="E3">
+        <v>600</v>
+      </c>
+      <c r="F3">
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>

--- a/finance/data/transactions.xlsx
+++ b/finance/data/transactions.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
   <si>
     <t>trade_date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -218,14 +218,32 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>兴业证券</t>
+    <t>fee_rate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>山鹰纸业</t>
+    <rPh sb="0" eb="1">
+      <t>shan'ying'zhi'ye</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZLT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>512660.SH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业银行</t>
     <rPh sb="0" eb="1">
       <t>x'y'z'q</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fee_rate</t>
+    <rPh sb="2" eb="3">
+      <t>y'h</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -557,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F3"/>
+      <selection activeCell="A2" sqref="A2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -585,7 +603,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -593,6 +611,12 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -604,7 +628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection sqref="A1:A51"/>
     </sheetView>
   </sheetViews>
@@ -873,10 +897,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F3"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -898,7 +922,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -929,7 +953,7 @@
         <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D3">
         <v>17.239999999999998</v>
@@ -939,6 +963,66 @@
       </c>
       <c r="F3">
         <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>43734</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4">
+        <v>3.08</v>
+      </c>
+      <c r="E4">
+        <v>3400</v>
+      </c>
+      <c r="F4">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>43734</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5">
+        <v>17.54</v>
+      </c>
+      <c r="E5">
+        <v>-600</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>43734</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="E6">
+        <v>6000</v>
+      </c>
+      <c r="F6">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
